--- a/Members.xlsx
+++ b/Members.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="2580" activeTab="4" xr2:uid="{43F1AE87-5440-40DA-9B74-4CD7FE905D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="2580" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Members" sheetId="1" r:id="rId1"/>
+    <sheet name="OldMembers" sheetId="1" r:id="rId1"/>
     <sheet name="PaymentMethods" sheetId="2" r:id="rId2"/>
     <sheet name="Pricing" sheetId="3" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Event Attendance" sheetId="5" r:id="rId5"/>
+    <sheet name="Members" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="259">
   <si>
     <t>last_name</t>
   </si>
@@ -784,12 +780,33 @@
   </si>
   <si>
     <t>Card Exp</t>
+  </si>
+  <si>
+    <t>MemberNumber</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>CurrentFlag</t>
+  </si>
+  <si>
+    <t>RenewalID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -830,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,10 +867,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1157,18 +1181,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83829D5-02A8-4609-9BA2-B5393ADE575E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,18 +1219,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2229,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B4AD4F-7F54-4911-9776-FAFFD20A52FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2474,7 +2498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A751437D-EA8D-43D2-9F0F-5B0F25D1BE3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2524,11 +2548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F43557-ED6C-43FE-8D7E-5631ECFE4531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,10 +3937,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880A20D3-8F59-4675-9006-A22C83A16456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -4309,4 +4333,859 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>42832</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T3" s="4">
+        <v>26113</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43068</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4" s="4">
+        <v>26392</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>42792</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="T5" s="4">
+        <v>27741</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="X5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>43044</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="T6" s="4">
+        <v>35480</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>42384</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7" s="4">
+        <v>32546</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>42807</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T8" s="4">
+        <v>20606</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>42956</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T9" s="4">
+        <v>28045</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>42622</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T10" s="4">
+        <v>32202</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="X10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>42695</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T11" s="4">
+        <v>23779</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>43091</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T12" s="4">
+        <v>28580</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>42813</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T13" s="4">
+        <v>33598</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="X13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>42485</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="T14" s="4">
+        <v>23790</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="W14" s="4"/>
+      <c r="X14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>42450</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T15" s="4">
+        <v>21170</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>42762</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T16" s="4">
+        <v>23664</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="W16" s="4"/>
+      <c r="X16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>43014</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T17" s="4">
+        <v>30325</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Members.xlsx
+++ b/Members.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\DataModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="2580" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="2580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OldMembers" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Event Attendance" sheetId="5" r:id="rId5"/>
     <sheet name="Members" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -806,7 +811,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -867,17 +872,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,18 +1186,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,18 +1224,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2253,7 +2258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2498,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2548,7 +2553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3937,7 +3942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4336,11 +4341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,14 +4354,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4386,7 +4391,7 @@
       <c r="I2" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>257</v>
       </c>
       <c r="K2" s="3"/>
@@ -4417,7 +4422,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B3" t="s">
@@ -4444,7 +4449,7 @@
       <c r="I3" s="4">
         <v>42832</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>1</v>
       </c>
       <c r="L3" s="3"/>
@@ -4470,7 +4475,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B4" t="s">
@@ -4497,7 +4502,7 @@
       <c r="I4" s="4">
         <v>43068</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>1</v>
       </c>
       <c r="L4" s="3"/>
@@ -4519,7 +4524,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>172</v>
       </c>
       <c r="B5" t="s">
@@ -4546,7 +4551,7 @@
       <c r="I5" s="4">
         <v>42792</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>1</v>
       </c>
       <c r="L5" s="3"/>
@@ -4572,7 +4577,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>172</v>
       </c>
       <c r="B6" t="s">
@@ -4599,7 +4604,7 @@
       <c r="I6" s="4">
         <v>43044</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>1</v>
       </c>
       <c r="L6" s="3"/>
@@ -4623,7 +4628,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B7" t="s">
@@ -4650,7 +4655,7 @@
       <c r="I7" s="4">
         <v>42384</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>1</v>
       </c>
       <c r="L7" s="3"/>
@@ -4672,7 +4677,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>173</v>
       </c>
       <c r="B8" t="s">
@@ -4699,7 +4704,7 @@
       <c r="I8" s="4">
         <v>42807</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>1</v>
       </c>
       <c r="L8" s="3"/>
@@ -4725,7 +4730,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B9" t="s">
@@ -4752,7 +4757,7 @@
       <c r="I9" s="4">
         <v>42956</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>1</v>
       </c>
       <c r="L9" s="3"/>
@@ -4776,7 +4781,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>173</v>
       </c>
       <c r="B10" t="s">
@@ -4803,7 +4808,7 @@
       <c r="I10" s="4">
         <v>42622</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>1</v>
       </c>
       <c r="L10" s="3"/>
@@ -4829,7 +4834,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>173</v>
       </c>
       <c r="B11" t="s">
@@ -4856,7 +4861,7 @@
       <c r="I11" s="4">
         <v>42695</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>0</v>
       </c>
       <c r="L11" s="3"/>
@@ -4878,7 +4883,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B12" t="s">
@@ -4905,7 +4910,7 @@
       <c r="I12" s="4">
         <v>43091</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>1</v>
       </c>
       <c r="L12" s="3"/>
@@ -4927,7 +4932,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B13" t="s">
@@ -4954,7 +4959,7 @@
       <c r="I13" s="4">
         <v>42813</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>1</v>
       </c>
       <c r="L13" s="3"/>
@@ -4980,7 +4985,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>172</v>
       </c>
       <c r="B14" t="s">
@@ -5007,7 +5012,7 @@
       <c r="I14" s="4">
         <v>42485</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>1</v>
       </c>
       <c r="L14" s="3"/>
@@ -5031,7 +5036,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>173</v>
       </c>
       <c r="B15" t="s">
@@ -5058,7 +5063,7 @@
       <c r="I15" s="4">
         <v>42450</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>1</v>
       </c>
       <c r="L15" s="3"/>
@@ -5080,7 +5085,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B16" t="s">
@@ -5107,7 +5112,7 @@
       <c r="I16" s="4">
         <v>42762</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <v>1</v>
       </c>
       <c r="L16" s="3"/>
@@ -5131,7 +5136,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B17" t="s">
@@ -5158,7 +5163,7 @@
       <c r="I17" s="4">
         <v>43014</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>0</v>
       </c>
       <c r="L17" s="3"/>

--- a/Members.xlsx
+++ b/Members.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="2580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="2580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OldMembers" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="259">
   <si>
     <t>last_name</t>
   </si>
@@ -2507,7 +2507,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:T94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D94" sqref="A2:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,8 +2584,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>192</v>
+      <c r="A3">
+        <v>105</v>
       </c>
       <c r="B3" s="4">
         <v>42384</v>
@@ -2598,8 +2598,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>192</v>
+      <c r="A4">
+        <v>105</v>
       </c>
       <c r="B4" s="4">
         <v>42415</v>
@@ -2612,8 +2612,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>192</v>
+      <c r="A5">
+        <v>105</v>
       </c>
       <c r="B5" s="4">
         <v>42444</v>
@@ -2626,8 +2626,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>202</v>
+      <c r="A6">
+        <v>113</v>
       </c>
       <c r="B6" s="4">
         <v>42450</v>
@@ -2640,8 +2640,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>192</v>
+      <c r="A7">
+        <v>105</v>
       </c>
       <c r="B7" s="4">
         <v>42475</v>
@@ -2656,8 +2656,8 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>202</v>
+      <c r="A8">
+        <v>113</v>
       </c>
       <c r="B8" s="4">
         <v>42481</v>
@@ -2673,8 +2673,8 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>201</v>
+      <c r="A9">
+        <v>112</v>
       </c>
       <c r="B9" s="4">
         <v>42485</v>
@@ -2691,8 +2691,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>192</v>
+      <c r="A10">
+        <v>105</v>
       </c>
       <c r="B10" s="4">
         <v>42505</v>
@@ -2709,8 +2709,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>192</v>
+      <c r="A11">
+        <v>105</v>
       </c>
       <c r="B11" s="4">
         <v>42536</v>
@@ -2728,8 +2728,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>192</v>
+      <c r="A12">
+        <v>105</v>
       </c>
       <c r="B12" s="4">
         <v>42566</v>
@@ -2746,8 +2746,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>201</v>
+      <c r="A13">
+        <v>112</v>
       </c>
       <c r="B13" s="4">
         <v>42576</v>
@@ -2765,8 +2765,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>192</v>
+      <c r="A14">
+        <v>105</v>
       </c>
       <c r="B14" s="4">
         <v>42597</v>
@@ -2784,8 +2784,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>194</v>
+      <c r="A15">
+        <v>108</v>
       </c>
       <c r="B15" s="4">
         <v>42622</v>
@@ -2802,8 +2802,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>192</v>
+      <c r="A16">
+        <v>105</v>
       </c>
       <c r="B16" s="4">
         <v>42628</v>
@@ -2820,8 +2820,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>192</v>
+      <c r="A17">
+        <v>105</v>
       </c>
       <c r="B17" s="4">
         <v>42658</v>
@@ -2839,8 +2839,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>201</v>
+      <c r="A18">
+        <v>112</v>
       </c>
       <c r="B18" s="4">
         <v>42668</v>
@@ -2857,8 +2857,8 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>192</v>
+      <c r="A19">
+        <v>105</v>
       </c>
       <c r="B19" s="4">
         <v>42689</v>
@@ -2876,8 +2876,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>198</v>
+      <c r="A20">
+        <v>109</v>
       </c>
       <c r="B20" s="4">
         <v>42695</v>
@@ -2893,8 +2893,8 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>192</v>
+      <c r="A21">
+        <v>105</v>
       </c>
       <c r="B21" s="4">
         <v>42719</v>
@@ -2912,8 +2912,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>192</v>
+      <c r="A22">
+        <v>105</v>
       </c>
       <c r="B22" s="4">
         <v>42750</v>
@@ -2926,8 +2926,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>201</v>
+      <c r="A23">
+        <v>112</v>
       </c>
       <c r="B23" s="4">
         <v>42760</v>
@@ -2940,8 +2940,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>203</v>
+      <c r="A24">
+        <v>114</v>
       </c>
       <c r="B24" s="4">
         <v>42762</v>
@@ -2954,8 +2954,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>192</v>
+      <c r="A25">
+        <v>105</v>
       </c>
       <c r="B25" s="4">
         <v>42781</v>
@@ -2968,8 +2968,8 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>195</v>
+      <c r="A26">
+        <v>103</v>
       </c>
       <c r="B26" s="4">
         <v>42792</v>
@@ -2982,8 +2982,8 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>203</v>
+      <c r="A27">
+        <v>114</v>
       </c>
       <c r="B27" s="4">
         <v>42793</v>
@@ -2996,8 +2996,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>197</v>
+      <c r="A28">
+        <v>106</v>
       </c>
       <c r="B28" s="4">
         <v>42807</v>
@@ -3010,8 +3010,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>192</v>
+      <c r="A29">
+        <v>105</v>
       </c>
       <c r="B29" s="4">
         <v>42809</v>
@@ -3024,8 +3024,8 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>200</v>
+      <c r="A30">
+        <v>111</v>
       </c>
       <c r="B30" s="4">
         <v>42813</v>
@@ -3038,8 +3038,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>203</v>
+      <c r="A31">
+        <v>114</v>
       </c>
       <c r="B31" s="4">
         <v>42821</v>
@@ -3052,8 +3052,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>190</v>
+      <c r="A32">
+        <v>101</v>
       </c>
       <c r="B32" s="4">
         <v>42832</v>
@@ -3066,8 +3066,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>192</v>
+      <c r="A33">
+        <v>105</v>
       </c>
       <c r="B33" s="4">
         <v>42840</v>
@@ -3080,8 +3080,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>200</v>
+      <c r="A34">
+        <v>111</v>
       </c>
       <c r="B34" s="4">
         <v>42844</v>
@@ -3094,8 +3094,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>201</v>
+      <c r="A35">
+        <v>112</v>
       </c>
       <c r="B35" s="4">
         <v>42850</v>
@@ -3108,8 +3108,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>203</v>
+      <c r="A36">
+        <v>114</v>
       </c>
       <c r="B36" s="4">
         <v>42852</v>
@@ -3122,8 +3122,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>190</v>
+      <c r="A37">
+        <v>101</v>
       </c>
       <c r="B37" s="4">
         <v>42862</v>
@@ -3136,8 +3136,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>192</v>
+      <c r="A38">
+        <v>105</v>
       </c>
       <c r="B38" s="4">
         <v>42870</v>
@@ -3150,8 +3150,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>200</v>
+      <c r="A39">
+        <v>111</v>
       </c>
       <c r="B39" s="4">
         <v>42874</v>
@@ -3164,8 +3164,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>195</v>
+      <c r="A40">
+        <v>103</v>
       </c>
       <c r="B40" s="4">
         <v>42881</v>
@@ -3178,8 +3178,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>203</v>
+      <c r="A41">
+        <v>114</v>
       </c>
       <c r="B41" s="4">
         <v>42882</v>
@@ -3192,8 +3192,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>190</v>
+      <c r="A42">
+        <v>101</v>
       </c>
       <c r="B42" s="4">
         <v>42893</v>
@@ -3206,8 +3206,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>190</v>
+      <c r="A43">
+        <v>101</v>
       </c>
       <c r="B43" s="4">
         <v>42894</v>
@@ -3220,8 +3220,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>192</v>
+      <c r="A44">
+        <v>105</v>
       </c>
       <c r="B44" s="4">
         <v>42901</v>
@@ -3234,8 +3234,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>200</v>
+      <c r="A45">
+        <v>111</v>
       </c>
       <c r="B45" s="4">
         <v>42905</v>
@@ -3248,8 +3248,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>203</v>
+      <c r="A46">
+        <v>114</v>
       </c>
       <c r="B46" s="4">
         <v>42913</v>
@@ -3262,8 +3262,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>190</v>
+      <c r="A47">
+        <v>101</v>
       </c>
       <c r="B47" s="4">
         <v>42923</v>
@@ -3276,8 +3276,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>192</v>
+      <c r="A48">
+        <v>105</v>
       </c>
       <c r="B48" s="4">
         <v>42931</v>
@@ -3290,8 +3290,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>200</v>
+      <c r="A49">
+        <v>111</v>
       </c>
       <c r="B49" s="4">
         <v>42935</v>
@@ -3304,8 +3304,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>200</v>
+      <c r="A50">
+        <v>111</v>
       </c>
       <c r="B50" s="4">
         <v>42936</v>
@@ -3318,8 +3318,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>201</v>
+      <c r="A51">
+        <v>112</v>
       </c>
       <c r="B51" s="4">
         <v>42941</v>
@@ -3332,8 +3332,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>203</v>
+      <c r="A52">
+        <v>114</v>
       </c>
       <c r="B52" s="4">
         <v>42943</v>
@@ -3346,8 +3346,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>190</v>
+      <c r="A53">
+        <v>101</v>
       </c>
       <c r="B53" s="4">
         <v>42954</v>
@@ -3360,8 +3360,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>193</v>
+      <c r="A54">
+        <v>107</v>
       </c>
       <c r="B54" s="4">
         <v>42956</v>
@@ -3374,8 +3374,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>192</v>
+      <c r="A55">
+        <v>105</v>
       </c>
       <c r="B55" s="4">
         <v>42962</v>
@@ -3388,8 +3388,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>200</v>
+      <c r="A56">
+        <v>111</v>
       </c>
       <c r="B56" s="4">
         <v>42966</v>
@@ -3402,8 +3402,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>195</v>
+      <c r="A57">
+        <v>103</v>
       </c>
       <c r="B57" s="4">
         <v>42973</v>
@@ -3416,8 +3416,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>203</v>
+      <c r="A58">
+        <v>114</v>
       </c>
       <c r="B58" s="4">
         <v>42974</v>
@@ -3430,8 +3430,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>190</v>
+      <c r="A59">
+        <v>101</v>
       </c>
       <c r="B59" s="4">
         <v>42985</v>
@@ -3444,8 +3444,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>193</v>
+      <c r="A60">
+        <v>107</v>
       </c>
       <c r="B60" s="4">
         <v>42987</v>
@@ -3458,8 +3458,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>194</v>
+      <c r="A61">
+        <v>108</v>
       </c>
       <c r="B61" s="4">
         <v>42987</v>
@@ -3472,8 +3472,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>192</v>
+      <c r="A62">
+        <v>105</v>
       </c>
       <c r="B62" s="4">
         <v>42993</v>
@@ -3486,8 +3486,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>200</v>
+      <c r="A63">
+        <v>111</v>
       </c>
       <c r="B63" s="4">
         <v>42997</v>
@@ -3500,8 +3500,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>203</v>
+      <c r="A64">
+        <v>114</v>
       </c>
       <c r="B64" s="4">
         <v>43005</v>
@@ -3514,8 +3514,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>204</v>
+      <c r="A65">
+        <v>115</v>
       </c>
       <c r="B65" s="4">
         <v>43014</v>
@@ -3528,8 +3528,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>190</v>
+      <c r="A66">
+        <v>101</v>
       </c>
       <c r="B66" s="4">
         <v>43015</v>
@@ -3542,8 +3542,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>193</v>
+      <c r="A67">
+        <v>107</v>
       </c>
       <c r="B67" s="4">
         <v>43017</v>
@@ -3556,8 +3556,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>192</v>
+      <c r="A68">
+        <v>105</v>
       </c>
       <c r="B68" s="4">
         <v>43023</v>
@@ -3570,8 +3570,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>200</v>
+      <c r="A69">
+        <v>111</v>
       </c>
       <c r="B69" s="4">
         <v>43027</v>
@@ -3584,8 +3584,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>201</v>
+      <c r="A70">
+        <v>112</v>
       </c>
       <c r="B70" s="4">
         <v>43033</v>
@@ -3598,8 +3598,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>203</v>
+      <c r="A71">
+        <v>114</v>
       </c>
       <c r="B71" s="4">
         <v>43035</v>
@@ -3612,8 +3612,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>196</v>
+      <c r="A72">
+        <v>104</v>
       </c>
       <c r="B72" s="4">
         <v>43044</v>
@@ -3626,8 +3626,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>190</v>
+      <c r="A73">
+        <v>101</v>
       </c>
       <c r="B73" s="4">
         <v>43046</v>
@@ -3640,8 +3640,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>193</v>
+      <c r="A74">
+        <v>107</v>
       </c>
       <c r="B74" s="4">
         <v>43048</v>
@@ -3654,8 +3654,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>192</v>
+      <c r="A75">
+        <v>105</v>
       </c>
       <c r="B75" s="4">
         <v>43054</v>
@@ -3668,8 +3668,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>200</v>
+      <c r="A76">
+        <v>111</v>
       </c>
       <c r="B76" s="4">
         <v>43058</v>
@@ -3682,8 +3682,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>195</v>
+      <c r="A77">
+        <v>103</v>
       </c>
       <c r="B77" s="4">
         <v>43065</v>
@@ -3696,8 +3696,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>195</v>
+      <c r="A78">
+        <v>103</v>
       </c>
       <c r="B78" s="4">
         <v>43066</v>
@@ -3710,8 +3710,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>203</v>
+      <c r="A79">
+        <v>114</v>
       </c>
       <c r="B79" s="4">
         <v>43066</v>
@@ -3724,8 +3724,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>191</v>
+      <c r="A80">
+        <v>102</v>
       </c>
       <c r="B80" s="4">
         <v>43068</v>
@@ -3738,8 +3738,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>190</v>
+      <c r="A81">
+        <v>101</v>
       </c>
       <c r="B81" s="4">
         <v>43076</v>
@@ -3752,8 +3752,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>193</v>
+      <c r="A82">
+        <v>107</v>
       </c>
       <c r="B82" s="4">
         <v>43078</v>
@@ -3766,8 +3766,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>192</v>
+      <c r="A83">
+        <v>105</v>
       </c>
       <c r="B83" s="4">
         <v>43084</v>
@@ -3780,8 +3780,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>200</v>
+      <c r="A84">
+        <v>111</v>
       </c>
       <c r="B84" s="4">
         <v>43088</v>
@@ -3794,8 +3794,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>199</v>
+      <c r="A85">
+        <v>110</v>
       </c>
       <c r="B85" s="4">
         <v>43091</v>
@@ -3808,8 +3808,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>203</v>
+      <c r="A86">
+        <v>114</v>
       </c>
       <c r="B86" s="4">
         <v>43096</v>
@@ -3822,8 +3822,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>191</v>
+      <c r="A87">
+        <v>102</v>
       </c>
       <c r="B87" s="4">
         <v>43098</v>
@@ -3836,8 +3836,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>190</v>
+      <c r="A88">
+        <v>101</v>
       </c>
       <c r="B88" s="4">
         <v>43107</v>
@@ -3850,8 +3850,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>193</v>
+      <c r="A89">
+        <v>107</v>
       </c>
       <c r="B89" s="4">
         <v>43109</v>
@@ -3864,8 +3864,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>192</v>
+      <c r="A90">
+        <v>105</v>
       </c>
       <c r="B90" s="4">
         <v>43115</v>
@@ -3878,8 +3878,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>200</v>
+      <c r="A91">
+        <v>111</v>
       </c>
       <c r="B91" s="4">
         <v>43119</v>
@@ -3892,8 +3892,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>199</v>
+      <c r="A92">
+        <v>110</v>
       </c>
       <c r="B92" s="4">
         <v>43122</v>
@@ -3906,8 +3906,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>201</v>
+      <c r="A93">
+        <v>112</v>
       </c>
       <c r="B93" s="4">
         <v>43125</v>
@@ -3920,8 +3920,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>203</v>
+      <c r="A94">
+        <v>114</v>
       </c>
       <c r="B94" s="4">
         <v>43127</v>
@@ -3945,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4344,7 +4344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2:W17"/>
     </sheetView>
   </sheetViews>
